--- a/行政清单领款单相关/测试整理目录/2_Excel滙入記錄模板-支出賬文件/屯門婦聯 - 會計及財務記賬系統-Excel滙入記錄模板-支出賬.xlsx
+++ b/行政清单领款单相关/测试整理目录/2_Excel滙入記錄模板-支出賬文件/屯門婦聯 - 會計及財務記賬系統-Excel滙入記錄模板-支出賬.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SK\sync\脚本\行政清单领款单相关\测试整理目录\2_Excel滙入記錄模板-支出賬文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SK\sync\脚本\行政清单领款单相关\测试整理目录\0_模板文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA7F29-B553-4894-9C2C-45D514558EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790250FD-746E-4B42-98DF-6AED836A9068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5751" yWindow="343" windowWidth="15849" windowHeight="13174" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支出賬" sheetId="1" r:id="rId1"/>
@@ -1323,8 +1323,8 @@
     <col min="14" max="14" width="47.7109375" style="26" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" style="26" customWidth="1"/>
     <col min="16" max="16" width="29.85546875" style="31" customWidth="1"/>
-    <col min="17" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="17" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/行政清单领款单相关/测试整理目录/2_Excel滙入記錄模板-支出賬文件/屯門婦聯 - 會計及財務記賬系統-Excel滙入記錄模板-支出賬.xlsx
+++ b/行政清单领款单相关/测试整理目录/2_Excel滙入記錄模板-支出賬文件/屯門婦聯 - 會計及財務記賬系統-Excel滙入記錄模板-支出賬.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SK\sync\脚本\行政清单领款单相关\测试整理目录\0_模板文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\我的项目\自动化脚本\行政清单领款单相关\测试整理目录\2_Excel滙入記錄模板-支出賬文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790250FD-746E-4B42-98DF-6AED836A9068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6692E769-169B-462B-86D0-74ED2DEEE2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5751" yWindow="343" windowWidth="15849" windowHeight="13174" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支出賬" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>屯門婦聯 - 會計及財務記賬系統 - Excel 滙入記錄模板 - 支出賬</t>
   </si>
@@ -88,12 +88,102 @@
     <t>名稱</t>
   </si>
   <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>山景-SK</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
     <t>C029</t>
   </si>
   <si>
     <t>導師費</t>
   </si>
   <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>初級瑜伽課程H(四)</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>郭玉貞</t>
+  </si>
+  <si>
+    <t>SIC250257</t>
+  </si>
+  <si>
+    <t>2025-10-09 至 2025-11-27</t>
+  </si>
+  <si>
+    <t>C025</t>
+  </si>
+  <si>
+    <t>電話及互聯網費</t>
+  </si>
+  <si>
+    <t>山景中心上網費(11/2025)</t>
+  </si>
+  <si>
+    <t>Information Technology Resourse Centre</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>廣告及推廣</t>
+  </si>
+  <si>
+    <t>網上宣傳費(11/2025)</t>
+  </si>
+  <si>
+    <t>Knight Creative Limited</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>印刷</t>
+  </si>
+  <si>
+    <t>影印費(11/2025)</t>
+  </si>
+  <si>
+    <t>HP Inc Hong Kong Limited</t>
+  </si>
+  <si>
+    <t>影印費(6/2025)</t>
+  </si>
+  <si>
+    <t>9163530070</t>
+  </si>
+  <si>
+    <t>山景中心上網費(12/2025)</t>
+  </si>
+  <si>
+    <t>Information Technology Resource Centre</t>
+  </si>
+  <si>
+    <t>99169081</t>
+  </si>
+  <si>
+    <t>網上宣傳費(12/2025)</t>
+  </si>
+  <si>
+    <t>INV-000265</t>
+  </si>
+  <si>
     <t>屯門婦聯 - 會計及財務記賬系統 - Excel 滙入記錄模板 - 種類 (支出)</t>
   </si>
   <si>
@@ -172,12 +262,6 @@
     <t>活動費用</t>
   </si>
   <si>
-    <t>C013</t>
-  </si>
-  <si>
-    <t>廣告及推廣</t>
-  </si>
-  <si>
     <t>C014</t>
   </si>
   <si>
@@ -220,12 +304,6 @@
     <t>郵費/郵電</t>
   </si>
   <si>
-    <t>C021</t>
-  </si>
-  <si>
-    <t>印刷</t>
-  </si>
-  <si>
     <t>C022</t>
   </si>
   <si>
@@ -242,12 +320,6 @@
   </si>
   <si>
     <t>什費</t>
-  </si>
-  <si>
-    <t>C025</t>
-  </si>
-  <si>
-    <t>電話及互聯網費</t>
   </si>
   <si>
     <t>C026</t>
@@ -473,8 +545,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -850,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +1025,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1302,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -1323,8 +1399,8 @@
     <col min="14" max="14" width="47.7109375" style="26" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" style="26" customWidth="1"/>
     <col min="16" max="16" width="29.85546875" style="31" customWidth="1"/>
-    <col min="17" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="17" max="26" width="9" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1448,51 +1524,51 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="46" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
@@ -1514,142 +1590,349 @@
       <c r="H8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="41"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="26">
+        <v>3600</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="L10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="25"/>
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="31"/>
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="A13" s="26">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="35">
+        <v>46023</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="30">
+        <v>334.37</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="A14" s="26">
+        <v>3</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="35">
+        <v>46023</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="30">
+        <v>478</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="A15" s="26">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="35">
+        <v>46023</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="30">
+        <v>2475</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3368,7 +3651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
@@ -3380,13 +3663,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>19</v>
@@ -3400,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3411,10 +3694,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3422,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3433,10 +3716,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3444,10 +3727,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3455,10 +3738,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3466,10 +3749,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3477,10 +3760,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3488,10 +3771,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3499,10 +3782,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3510,10 +3793,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3521,10 +3804,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3532,10 +3815,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3543,10 +3826,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3554,10 +3837,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3565,10 +3848,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3576,10 +3859,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3587,10 +3870,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3598,10 +3881,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3609,10 +3892,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3620,10 +3903,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3631,10 +3914,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3642,10 +3925,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3653,10 +3936,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3664,10 +3947,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3675,10 +3958,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3686,10 +3969,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3697,10 +3980,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3708,10 +3991,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3719,10 +4002,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3730,10 +4013,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3741,10 +4024,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3752,10 +4035,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3763,10 +4046,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3774,10 +4057,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3785,10 +4068,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3796,10 +4079,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3807,10 +4090,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3818,10 +4101,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3829,10 +4112,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3840,10 +4123,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3851,10 +4134,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3862,10 +4145,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3873,10 +4156,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3884,10 +4167,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3895,10 +4178,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3906,10 +4189,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3917,10 +4200,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3928,10 +4211,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3939,10 +4222,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3950,10 +4233,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3961,10 +4244,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3972,10 +4255,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3983,10 +4266,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -3994,10 +4277,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4005,10 +4288,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4016,10 +4299,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4027,10 +4310,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4038,10 +4321,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4049,10 +4332,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4060,10 +4343,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -4071,10 +4354,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4082,10 +4365,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
